--- a/uploads/depot_master.xlsx
+++ b/uploads/depot_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073A26D-C532-45C1-9FE8-23B54AFB78D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E487F22D-3BB3-4647-915B-A39198C02956}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +105,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -125,32 +133,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,22 +452,23 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,397 +494,368 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
+        <v>469.05</v>
+      </c>
+      <c r="D2" s="4">
+        <v>155</v>
+      </c>
+      <c r="E2" s="4">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2413</v>
+      </c>
+      <c r="G2" s="4">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4">
         <v>25983.8</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>885.05000000000018</v>
+      </c>
+      <c r="D3" s="4">
+        <v>165</v>
+      </c>
+      <c r="E3" s="4">
+        <v>136</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1894</v>
+      </c>
+      <c r="G3" s="4">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4">
+        <v>35820.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>647.9</v>
+      </c>
+      <c r="D4" s="4">
         <v>155</v>
       </c>
-      <c r="E2">
-        <v>132</v>
-      </c>
-      <c r="F2">
-        <v>2413</v>
-      </c>
-      <c r="G2">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>469.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>35820.75</v>
-      </c>
-      <c r="D3">
-        <v>165</v>
-      </c>
-      <c r="E3">
-        <v>136</v>
-      </c>
-      <c r="F3">
-        <v>1894</v>
-      </c>
-      <c r="G3">
-        <v>41</v>
-      </c>
-      <c r="H3">
-        <v>885.05000000000018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="E4" s="4">
+        <v>115</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4">
         <v>28986.749999999993</v>
       </c>
-      <c r="D4">
-        <v>155</v>
-      </c>
-      <c r="E4">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>1400</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>647.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
+        <v>669.80000000000007</v>
+      </c>
+      <c r="D5" s="4">
+        <v>172</v>
+      </c>
+      <c r="E5" s="4">
+        <v>152</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2109</v>
+      </c>
+      <c r="G5" s="4">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4">
         <v>35394.05000000001</v>
       </c>
-      <c r="D5">
-        <v>172</v>
-      </c>
-      <c r="E5">
-        <v>152</v>
-      </c>
-      <c r="F5">
-        <v>2109</v>
-      </c>
-      <c r="G5">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>669.80000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
+        <v>683.20000000000027</v>
+      </c>
+      <c r="D6" s="4">
+        <v>141</v>
+      </c>
+      <c r="E6" s="4">
+        <v>101</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1762</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4">
         <v>30017.199999999997</v>
       </c>
-      <c r="D6">
-        <v>141</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>1762</v>
-      </c>
-      <c r="G6">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>655.55000000000007</v>
+      </c>
+      <c r="D7" s="4">
+        <v>87</v>
+      </c>
+      <c r="E7" s="4">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4">
+        <v>926</v>
+      </c>
+      <c r="G7" s="4">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4">
+        <v>16272.699999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>449.55</v>
+      </c>
+      <c r="D8" s="4">
+        <v>106</v>
+      </c>
+      <c r="E8" s="4">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1226</v>
+      </c>
+      <c r="G8" s="4">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4">
+        <v>22871.000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>749.94999999999993</v>
+      </c>
+      <c r="D9" s="4">
+        <v>171</v>
+      </c>
+      <c r="E9" s="4">
+        <v>139</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1924</v>
+      </c>
+      <c r="G9" s="4">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4">
+        <v>40244.699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>633.10000000000014</v>
+      </c>
+      <c r="D10" s="4">
+        <v>121</v>
+      </c>
+      <c r="E10" s="4">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1315</v>
+      </c>
+      <c r="G10" s="4">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4">
+        <v>28512.799999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>523.69999999999993</v>
+      </c>
+      <c r="D11" s="4">
+        <v>107</v>
+      </c>
+      <c r="E11" s="4">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1256</v>
+      </c>
+      <c r="G11" s="4">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4">
+        <v>23199.899999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>333.35</v>
+      </c>
+      <c r="D12" s="4">
+        <v>116</v>
+      </c>
+      <c r="E12" s="4">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4">
+        <v>938</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>24212.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>202.45</v>
+      </c>
+      <c r="D13" s="4">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4">
+        <v>546</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>11736.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>365.2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4">
         <v>36</v>
       </c>
-      <c r="H6">
-        <v>683.20000000000027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F14" s="4">
+        <v>581</v>
+      </c>
+      <c r="G14" s="4">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4">
+        <v>12631.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <v>379.75</v>
+      </c>
+      <c r="D15" s="4">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4">
+        <v>754</v>
+      </c>
+      <c r="G15" s="4">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4">
+        <v>16366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>327.8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4">
+        <v>872</v>
+      </c>
+      <c r="G16" s="4">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>16272.699999999997</v>
-      </c>
-      <c r="D7">
-        <v>87</v>
-      </c>
-      <c r="E7">
-        <v>62</v>
-      </c>
-      <c r="F7">
-        <v>926</v>
-      </c>
-      <c r="G7">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>655.55000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>22871.000000000004</v>
-      </c>
-      <c r="D8">
-        <v>106</v>
-      </c>
-      <c r="E8">
-        <v>86</v>
-      </c>
-      <c r="F8">
-        <v>1226</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <v>449.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>40244.699999999997</v>
-      </c>
-      <c r="D9">
-        <v>171</v>
-      </c>
-      <c r="E9">
-        <v>139</v>
-      </c>
-      <c r="F9">
-        <v>1924</v>
-      </c>
-      <c r="G9">
-        <v>37</v>
-      </c>
-      <c r="H9">
-        <v>749.94999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>28512.799999999996</v>
-      </c>
-      <c r="D10">
-        <v>121</v>
-      </c>
-      <c r="E10">
-        <v>83</v>
-      </c>
-      <c r="F10">
-        <v>1315</v>
-      </c>
-      <c r="G10">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>633.10000000000014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>23199.899999999998</v>
-      </c>
-      <c r="D11">
-        <v>107</v>
-      </c>
-      <c r="E11">
-        <v>72</v>
-      </c>
-      <c r="F11">
-        <v>1256</v>
-      </c>
-      <c r="G11">
-        <v>28</v>
-      </c>
-      <c r="H11">
-        <v>523.69999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>24212.2</v>
-      </c>
-      <c r="D12">
-        <v>116</v>
-      </c>
-      <c r="E12">
-        <v>93</v>
-      </c>
-      <c r="F12">
-        <v>938</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>333.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>11736.5</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>546</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>202.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>12631.75</v>
-      </c>
-      <c r="D14">
-        <v>53</v>
-      </c>
-      <c r="E14">
-        <v>36</v>
-      </c>
-      <c r="F14">
-        <v>581</v>
-      </c>
-      <c r="G14">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <v>365.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>16366</v>
-      </c>
-      <c r="D15">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <v>754</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>379.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
+      <c r="H16" s="4">
         <v>21375.5</v>
-      </c>
-      <c r="D16">
-        <v>92</v>
-      </c>
-      <c r="E16">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>872</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>327.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>